--- a/wayne_revised.xlsx
+++ b/wayne_revised.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexiskedo/Documents/Data Science/ptv/monitor-projections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3078D749-932C-8449-BE4D-71C14CE52957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025F7FB9-DEDF-A845-9B5F-887C6A86BD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36160" yWindow="-420" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1452</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -6436,22 +6433,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H1452"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -6477,11 +6469,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2">
@@ -6555,11 +6547,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5">
@@ -6581,11 +6573,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>75</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C6">
@@ -6633,11 +6625,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>108</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C8">
@@ -6685,11 +6677,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>151</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C10">
@@ -6737,11 +6729,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>183</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C12">
@@ -6763,11 +6755,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>205</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C13">
@@ -6789,11 +6781,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>227</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C14">
@@ -6841,11 +6833,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>260</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C16">
@@ -6945,11 +6937,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>313</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C20">
@@ -6971,11 +6963,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>335</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C21">
@@ -7023,11 +7015,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>367</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C23">
@@ -7075,11 +7067,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>388</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C25">
@@ -7101,11 +7093,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>410</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C26">
@@ -7205,11 +7197,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>465</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C30">
@@ -7257,11 +7249,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>486</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C32">
@@ -7413,11 +7405,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>548</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C38">
@@ -7465,11 +7457,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>570</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C40">
@@ -7543,11 +7535,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>602</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C43">
@@ -7595,11 +7587,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>624</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C45">
@@ -7621,11 +7613,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>635</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C46">
@@ -7673,11 +7665,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>656</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C48">
@@ -7699,11 +7691,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>667</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C49">
@@ -7725,11 +7717,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>678</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C50">
@@ -7803,11 +7795,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>710</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C53">
@@ -7829,11 +7821,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>721</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C54">
@@ -7855,11 +7847,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>732</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C55">
@@ -7985,11 +7977,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>783</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C60">
@@ -8011,11 +8003,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>794</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C61">
@@ -8037,11 +8029,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>805</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C62">
@@ -8089,11 +8081,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>827</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C64">
@@ -8115,11 +8107,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>838</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C65">
@@ -8141,11 +8133,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>849</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C66">
@@ -8167,11 +8159,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>860</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C67">
@@ -8193,11 +8185,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>871</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C68">
@@ -8245,11 +8237,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>892</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C70">
@@ -8271,11 +8263,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>903</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C71">
@@ -8297,11 +8289,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>914</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C72">
@@ -8349,11 +8341,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>935</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C74">
@@ -8375,11 +8367,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>946</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C75">
@@ -8401,11 +8393,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>957</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C76">
@@ -8427,11 +8419,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>968</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C77">
@@ -8453,11 +8445,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>979</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C78">
@@ -8479,11 +8471,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>990</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C79">
@@ -8505,11 +8497,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>1001</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C80">
@@ -8531,11 +8523,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>1012</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C81">
@@ -8557,11 +8549,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>1023</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C82">
@@ -8609,11 +8601,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>1044</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C84">
@@ -8635,11 +8627,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>1055</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C85">
@@ -8661,11 +8653,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>1066</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C86">
@@ -8713,11 +8705,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>1088</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>163</v>
       </c>
       <c r="C88">
@@ -8739,11 +8731,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>1099</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C89">
@@ -8765,11 +8757,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>1110</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C90">
@@ -8791,11 +8783,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>1121</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C91">
@@ -8817,11 +8809,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>1132</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C92">
@@ -8869,11 +8861,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>1153</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C94">
@@ -8895,11 +8887,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>1164</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C95">
@@ -8921,11 +8913,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>1175</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C96">
@@ -8947,11 +8939,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>1186</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C97">
@@ -8999,11 +8991,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>1207</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C99">
@@ -9077,11 +9069,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>1238</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C102">
@@ -9103,11 +9095,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>1249</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C103">
@@ -9129,11 +9121,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>1260</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C104">
@@ -9155,11 +9147,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>1271</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C105">
@@ -9181,11 +9173,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>1282</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C106">
@@ -9207,11 +9199,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>1293</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C107">
@@ -9233,11 +9225,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>1304</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C108">
@@ -9259,11 +9251,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>1310</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C109">
@@ -9311,11 +9303,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>1331</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C111">
@@ -9337,11 +9329,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>1342</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>193</v>
       </c>
       <c r="C112">
@@ -9363,11 +9355,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>1353</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C113">
@@ -9389,11 +9381,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>1364</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="3" t="s">
         <v>195</v>
       </c>
       <c r="C114">
@@ -9415,11 +9407,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>1370</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="3" t="s">
         <v>196</v>
       </c>
       <c r="C115">
@@ -9519,11 +9511,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>1412</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="3" t="s">
         <v>202</v>
       </c>
       <c r="C119">
@@ -9545,11 +9537,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>1423</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>203</v>
       </c>
       <c r="C120">
@@ -9571,11 +9563,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>1434</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="3" t="s">
         <v>204</v>
       </c>
       <c r="C121">
@@ -9597,11 +9589,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>1445</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>205</v>
       </c>
       <c r="C122">
@@ -9623,11 +9615,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>1456</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C123">
@@ -9675,11 +9667,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>1478</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C125">
@@ -9701,11 +9693,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>1489</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="3" t="s">
         <v>209</v>
       </c>
       <c r="C126">
@@ -9753,11 +9745,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>1510</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="3" t="s">
         <v>211</v>
       </c>
       <c r="C128">
@@ -9805,11 +9797,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>1531</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C130">
@@ -9831,11 +9823,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>1542</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="3" t="s">
         <v>215</v>
       </c>
       <c r="C131">
@@ -9857,11 +9849,11 @@
         <v>216</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>1553</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="3" t="s">
         <v>217</v>
       </c>
       <c r="C132">
@@ -9883,11 +9875,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>1564</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="3" t="s">
         <v>218</v>
       </c>
       <c r="C133">
@@ -9935,11 +9927,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>1579</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="3" t="s">
         <v>221</v>
       </c>
       <c r="C135">
@@ -9961,11 +9953,11 @@
         <v>222</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>1590</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="3" t="s">
         <v>223</v>
       </c>
       <c r="C136">
@@ -9987,11 +9979,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>1601</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C137">
@@ -10039,11 +10031,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>1622</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C139">
@@ -10091,11 +10083,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>1644</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C141">
@@ -10117,11 +10109,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>1655</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C142">
@@ -10143,11 +10135,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>1666</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="3" t="s">
         <v>232</v>
       </c>
       <c r="C143">
@@ -10195,11 +10187,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>1688</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="3" t="s">
         <v>235</v>
       </c>
       <c r="C145">
@@ -10221,11 +10213,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>1699</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C146">
@@ -10299,11 +10291,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>1730</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C149">
@@ -10351,11 +10343,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>1751</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C151">
@@ -10377,11 +10369,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>1762</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="3" t="s">
         <v>244</v>
       </c>
       <c r="C152">
@@ -10403,11 +10395,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>1773</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C153">
@@ -10429,11 +10421,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>1784</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="3" t="s">
         <v>246</v>
       </c>
       <c r="C154">
@@ -10455,11 +10447,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>1795</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="3" t="s">
         <v>247</v>
       </c>
       <c r="C155">
@@ -10481,11 +10473,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>1806</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C156">
@@ -10533,11 +10525,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>1827</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="3" t="s">
         <v>251</v>
       </c>
       <c r="C158">
@@ -10559,11 +10551,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>1838</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C159">
@@ -10585,11 +10577,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>1849</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="3" t="s">
         <v>253</v>
       </c>
       <c r="C160">
@@ -10611,11 +10603,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>1860</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C161">
@@ -10637,11 +10629,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>1871</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="3" t="s">
         <v>255</v>
       </c>
       <c r="C162">
@@ -10663,11 +10655,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>1882</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="3" t="s">
         <v>256</v>
       </c>
       <c r="C163">
@@ -10689,11 +10681,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>1893</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="3" t="s">
         <v>257</v>
       </c>
       <c r="C164">
@@ -10715,11 +10707,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>1904</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="3" t="s">
         <v>258</v>
       </c>
       <c r="C165">
@@ -10793,11 +10785,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>1936</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="3" t="s">
         <v>263</v>
       </c>
       <c r="C168">
@@ -10819,11 +10811,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>1947</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="3" t="s">
         <v>264</v>
       </c>
       <c r="C169">
@@ -10845,11 +10837,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>1958</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="3" t="s">
         <v>266</v>
       </c>
       <c r="C170">
@@ -10871,11 +10863,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>1969</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="3" t="s">
         <v>267</v>
       </c>
       <c r="C171">
@@ -10897,11 +10889,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>1980</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="3" t="s">
         <v>268</v>
       </c>
       <c r="C172">
@@ -10923,11 +10915,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>1991</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="3" t="s">
         <v>269</v>
       </c>
       <c r="C173">
@@ -10949,11 +10941,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>2002</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="3" t="s">
         <v>270</v>
       </c>
       <c r="C174">
@@ -10975,11 +10967,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>2013</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="3" t="s">
         <v>271</v>
       </c>
       <c r="C175">
@@ -11001,11 +10993,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>2024</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="3" t="s">
         <v>272</v>
       </c>
       <c r="C176">
@@ -11027,11 +11019,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>2035</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="3" t="s">
         <v>274</v>
       </c>
       <c r="C177">
@@ -11053,11 +11045,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>2046</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="3" t="s">
         <v>275</v>
       </c>
       <c r="C178">
@@ -11079,11 +11071,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>2057</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="3" t="s">
         <v>276</v>
       </c>
       <c r="C179">
@@ -11105,11 +11097,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>2068</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="3" t="s">
         <v>277</v>
       </c>
       <c r="C180">
@@ -11131,11 +11123,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>2079</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="3" t="s">
         <v>278</v>
       </c>
       <c r="C181">
@@ -11157,11 +11149,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>2090</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="3" t="s">
         <v>279</v>
       </c>
       <c r="C182">
@@ -11209,11 +11201,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>2112</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="3" t="s">
         <v>282</v>
       </c>
       <c r="C184">
@@ -11235,11 +11227,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>2123</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="3" t="s">
         <v>283</v>
       </c>
       <c r="C185">
@@ -11261,11 +11253,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>2134</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="3" t="s">
         <v>285</v>
       </c>
       <c r="C186">
@@ -11287,11 +11279,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>2145</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="3" t="s">
         <v>286</v>
       </c>
       <c r="C187">
@@ -11313,11 +11305,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>2156</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="3" t="s">
         <v>287</v>
       </c>
       <c r="C188">
@@ -11339,11 +11331,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>2167</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="3" t="s">
         <v>288</v>
       </c>
       <c r="C189">
@@ -11391,11 +11383,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>2188</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="3" t="s">
         <v>290</v>
       </c>
       <c r="C191">
@@ -11417,11 +11409,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>2199</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="3" t="s">
         <v>291</v>
       </c>
       <c r="C192">
@@ -11443,11 +11435,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>2210</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="3" t="s">
         <v>292</v>
       </c>
       <c r="C193">
@@ -11469,11 +11461,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>2221</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C194">
@@ -11495,11 +11487,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>2232</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="3" t="s">
         <v>294</v>
       </c>
       <c r="C195">
@@ -11521,11 +11513,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>2243</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="3" t="s">
         <v>295</v>
       </c>
       <c r="C196">
@@ -11547,11 +11539,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>2254</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="3" t="s">
         <v>296</v>
       </c>
       <c r="C197">
@@ -11599,11 +11591,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>2275</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="3" t="s">
         <v>298</v>
       </c>
       <c r="C199">
@@ -11625,11 +11617,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>2286</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="3" t="s">
         <v>299</v>
       </c>
       <c r="C200">
@@ -11651,11 +11643,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>2297</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="3" t="s">
         <v>300</v>
       </c>
       <c r="C201">
@@ -11703,11 +11695,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>2313</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="3" t="s">
         <v>303</v>
       </c>
       <c r="C203">
@@ -11729,11 +11721,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>2324</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="3" t="s">
         <v>304</v>
       </c>
       <c r="C204">
@@ -11755,11 +11747,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>2335</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="3" t="s">
         <v>305</v>
       </c>
       <c r="C205">
@@ -11781,11 +11773,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>2346</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="3" t="s">
         <v>306</v>
       </c>
       <c r="C206">
@@ -11807,11 +11799,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>2357</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="3" t="s">
         <v>307</v>
       </c>
       <c r="C207">
@@ -11833,11 +11825,11 @@
         <v>308</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>2368</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="3" t="s">
         <v>309</v>
       </c>
       <c r="C208">
@@ -11859,11 +11851,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>2379</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="3" t="s">
         <v>310</v>
       </c>
       <c r="C209">
@@ -11885,11 +11877,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>2385</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="3" t="s">
         <v>311</v>
       </c>
       <c r="C210">
@@ -11911,11 +11903,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>2396</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="3" t="s">
         <v>312</v>
       </c>
       <c r="C211">
@@ -11937,11 +11929,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>2407</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="3" t="s">
         <v>313</v>
       </c>
       <c r="C212">
@@ -11963,11 +11955,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>2418</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="3" t="s">
         <v>314</v>
       </c>
       <c r="C213">
@@ -11989,11 +11981,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>2429</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="3" t="s">
         <v>316</v>
       </c>
       <c r="C214">
@@ -12041,11 +12033,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>2450</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="3" t="s">
         <v>318</v>
       </c>
       <c r="C216">
@@ -12067,11 +12059,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>2461</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="3" t="s">
         <v>319</v>
       </c>
       <c r="C217">
@@ -12093,11 +12085,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>2472</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="3" t="s">
         <v>320</v>
       </c>
       <c r="C218">
@@ -12119,11 +12111,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>2483</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="3" t="s">
         <v>321</v>
       </c>
       <c r="C219">
@@ -12171,11 +12163,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>2504</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="3" t="s">
         <v>324</v>
       </c>
       <c r="C221">
@@ -12223,11 +12215,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>2520</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="3" t="s">
         <v>327</v>
       </c>
       <c r="C223">
@@ -12275,11 +12267,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>2542</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="3" t="s">
         <v>330</v>
       </c>
       <c r="C225">
@@ -12301,11 +12293,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>2553</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="3" t="s">
         <v>331</v>
       </c>
       <c r="C226">
@@ -12327,11 +12319,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>2564</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="3" t="s">
         <v>332</v>
       </c>
       <c r="C227">
@@ -12353,11 +12345,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>2570</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="3" t="s">
         <v>333</v>
       </c>
       <c r="C228">
@@ -12379,11 +12371,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>2581</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="3" t="s">
         <v>334</v>
       </c>
       <c r="C229">
@@ -12405,11 +12397,11 @@
         <v>222</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>2592</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="3" t="s">
         <v>335</v>
       </c>
       <c r="C230">
@@ -12431,11 +12423,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>2603</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="3" t="s">
         <v>336</v>
       </c>
       <c r="C231">
@@ -12457,11 +12449,11 @@
         <v>337</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>2614</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="3" t="s">
         <v>338</v>
       </c>
       <c r="C232">
@@ -12483,11 +12475,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>2625</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="3" t="s">
         <v>339</v>
       </c>
       <c r="C233">
@@ -12509,11 +12501,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>2636</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="3" t="s">
         <v>340</v>
       </c>
       <c r="C234">
@@ -12561,11 +12553,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>2658</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="3" t="s">
         <v>343</v>
       </c>
       <c r="C236">
@@ -12587,11 +12579,11 @@
         <v>222</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>2669</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="3" t="s">
         <v>344</v>
       </c>
       <c r="C237">
@@ -12613,11 +12605,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>2680</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="3" t="s">
         <v>345</v>
       </c>
       <c r="C238">
@@ -12639,11 +12631,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>2691</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C239">
@@ -12665,11 +12657,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>2702</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="3" t="s">
         <v>347</v>
       </c>
       <c r="C240">
@@ -12691,11 +12683,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>2713</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="3" t="s">
         <v>348</v>
       </c>
       <c r="C241">
@@ -12717,11 +12709,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>2724</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="3" t="s">
         <v>349</v>
       </c>
       <c r="C242">
@@ -12743,11 +12735,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>2735</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C243">
@@ -12769,11 +12761,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>2746</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="3" t="s">
         <v>351</v>
       </c>
       <c r="C244">
@@ -12795,11 +12787,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>2757</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="3" t="s">
         <v>352</v>
       </c>
       <c r="C245">
@@ -12821,11 +12813,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>2768</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="3" t="s">
         <v>353</v>
       </c>
       <c r="C246">
@@ -12847,11 +12839,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>2778</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="3" t="s">
         <v>355</v>
       </c>
       <c r="C247">
@@ -12873,11 +12865,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>2789</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="3" t="s">
         <v>356</v>
       </c>
       <c r="C248">
@@ -12925,11 +12917,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>2810</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="3" t="s">
         <v>359</v>
       </c>
       <c r="C250">
@@ -12951,11 +12943,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>2821</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="3" t="s">
         <v>360</v>
       </c>
       <c r="C251">
@@ -12977,11 +12969,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>2827</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="3" t="s">
         <v>361</v>
       </c>
       <c r="C252">
@@ -13003,11 +12995,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>2838</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="3" t="s">
         <v>362</v>
       </c>
       <c r="C253">
@@ -13029,11 +13021,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>2844</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="3" t="s">
         <v>363</v>
       </c>
       <c r="C254">
@@ -13055,11 +13047,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>2850</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="3" t="s">
         <v>364</v>
       </c>
       <c r="C255">
@@ -13081,11 +13073,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>2861</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="3" t="s">
         <v>365</v>
       </c>
       <c r="C256">
@@ -13107,11 +13099,11 @@
         <v>216</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>2872</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="3" t="s">
         <v>366</v>
       </c>
       <c r="C257">
@@ -13133,11 +13125,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>2883</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="3" t="s">
         <v>367</v>
       </c>
       <c r="C258">
@@ -13159,11 +13151,11 @@
         <v>308</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>2894</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="3" t="s">
         <v>368</v>
       </c>
       <c r="C259">
@@ -13185,11 +13177,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>2905</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="3" t="s">
         <v>369</v>
       </c>
       <c r="C260">
@@ -13211,11 +13203,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>2911</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="3" t="s">
         <v>370</v>
       </c>
       <c r="C261">
@@ -13237,11 +13229,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>2922</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="3" t="s">
         <v>371</v>
       </c>
       <c r="C262">
@@ -13263,11 +13255,11 @@
         <v>337</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>2933</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="3" t="s">
         <v>372</v>
       </c>
       <c r="C263">
@@ -13289,11 +13281,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>2944</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="3" t="s">
         <v>373</v>
       </c>
       <c r="C264">
@@ -13315,11 +13307,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>2955</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="3" t="s">
         <v>374</v>
       </c>
       <c r="C265">
@@ -13341,11 +13333,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>2966</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="3" t="s">
         <v>375</v>
       </c>
       <c r="C266">
@@ -13367,11 +13359,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>2972</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="3" t="s">
         <v>376</v>
       </c>
       <c r="C267">
@@ -13393,11 +13385,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>2983</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="3" t="s">
         <v>377</v>
       </c>
       <c r="C268">
@@ -13419,11 +13411,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>2994</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="3" t="s">
         <v>378</v>
       </c>
       <c r="C269">
@@ -13445,11 +13437,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>3005</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="3" t="s">
         <v>379</v>
       </c>
       <c r="C270">
@@ -13523,11 +13515,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>3036</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="3" t="s">
         <v>384</v>
       </c>
       <c r="C273">
@@ -13549,11 +13541,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>3047</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="3" t="s">
         <v>385</v>
       </c>
       <c r="C274">
@@ -13575,11 +13567,11 @@
         <v>386</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>3058</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="3" t="s">
         <v>387</v>
       </c>
       <c r="C275">
@@ -13601,11 +13593,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>3069</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="3" t="s">
         <v>388</v>
       </c>
       <c r="C276">
@@ -13627,11 +13619,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>3080</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="3" t="s">
         <v>389</v>
       </c>
       <c r="C277">
@@ -13653,11 +13645,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>3091</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="3" t="s">
         <v>390</v>
       </c>
       <c r="C278">
@@ -13679,11 +13671,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>3102</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="3" t="s">
         <v>391</v>
       </c>
       <c r="C279">
@@ -13705,11 +13697,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>3113</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="3" t="s">
         <v>392</v>
       </c>
       <c r="C280">
@@ -13731,11 +13723,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>3124</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="3" t="s">
         <v>393</v>
       </c>
       <c r="C281">
@@ -13757,11 +13749,11 @@
         <v>337</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>3135</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="3" t="s">
         <v>394</v>
       </c>
       <c r="C282">
@@ -13783,11 +13775,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>3146</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="3" t="s">
         <v>395</v>
       </c>
       <c r="C283">
@@ -13809,11 +13801,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>3157</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="3" t="s">
         <v>396</v>
       </c>
       <c r="C284">
@@ -13835,11 +13827,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>3168</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="3" t="s">
         <v>397</v>
       </c>
       <c r="C285">
@@ -13861,11 +13853,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>3179</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="3" t="s">
         <v>398</v>
       </c>
       <c r="C286">
@@ -13887,11 +13879,11 @@
         <v>222</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>3190</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="3" t="s">
         <v>399</v>
       </c>
       <c r="C287">
@@ -13913,11 +13905,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>3201</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="3" t="s">
         <v>400</v>
       </c>
       <c r="C288">
@@ -13939,11 +13931,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>3212</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="3" t="s">
         <v>401</v>
       </c>
       <c r="C289">
@@ -13965,11 +13957,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>3223</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="3" t="s">
         <v>402</v>
       </c>
       <c r="C290">
@@ -13991,11 +13983,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>3234</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="3" t="s">
         <v>404</v>
       </c>
       <c r="C291">
@@ -14017,11 +14009,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>3245</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="3" t="s">
         <v>405</v>
       </c>
       <c r="C292">
@@ -14043,11 +14035,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>3256</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="3" t="s">
         <v>406</v>
       </c>
       <c r="C293">
@@ -14069,11 +14061,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>3267</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="3" t="s">
         <v>407</v>
       </c>
       <c r="C294">
@@ -14095,11 +14087,11 @@
         <v>337</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>3278</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C295">
@@ -14121,11 +14113,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>3289</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="3" t="s">
         <v>409</v>
       </c>
       <c r="C296">
@@ -14147,11 +14139,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>3300</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="3" t="s">
         <v>410</v>
       </c>
       <c r="C297">
@@ -14173,11 +14165,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>3311</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="3" t="s">
         <v>411</v>
       </c>
       <c r="C298">
@@ -14199,11 +14191,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>3322</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="3" t="s">
         <v>412</v>
       </c>
       <c r="C299">
@@ -14225,11 +14217,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>3333</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="3" t="s">
         <v>413</v>
       </c>
       <c r="C300">
@@ -14277,11 +14269,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>3354</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="3" t="s">
         <v>417</v>
       </c>
       <c r="C302">
@@ -14303,11 +14295,11 @@
         <v>418</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>3358</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="3" t="s">
         <v>419</v>
       </c>
       <c r="C303">
@@ -14329,11 +14321,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>3369</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="3" t="s">
         <v>420</v>
       </c>
       <c r="C304">
@@ -14355,11 +14347,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>3380</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="3" t="s">
         <v>421</v>
       </c>
       <c r="C305">
@@ -14381,11 +14373,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>3391</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="3" t="s">
         <v>423</v>
       </c>
       <c r="C306">
@@ -14407,11 +14399,11 @@
         <v>424</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>3402</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="3" t="s">
         <v>425</v>
       </c>
       <c r="C307">
@@ -14433,11 +14425,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>3413</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="3" t="s">
         <v>426</v>
       </c>
       <c r="C308">
@@ -14459,11 +14451,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>3424</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="3" t="s">
         <v>427</v>
       </c>
       <c r="C309">
@@ -14511,11 +14503,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>3445</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="3" t="s">
         <v>430</v>
       </c>
       <c r="C311">
@@ -14537,11 +14529,11 @@
         <v>414</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>3456</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="3" t="s">
         <v>431</v>
       </c>
       <c r="C312">
@@ -14563,11 +14555,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>3462</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="3" t="s">
         <v>432</v>
       </c>
       <c r="C313">
@@ -14589,11 +14581,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>3473</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="3" t="s">
         <v>433</v>
       </c>
       <c r="C314">
@@ -14615,11 +14607,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>3484</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="3" t="s">
         <v>434</v>
       </c>
       <c r="C315">
@@ -14641,11 +14633,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>3495</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="3" t="s">
         <v>435</v>
       </c>
       <c r="C316">
@@ -14667,11 +14659,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>3506</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="3" t="s">
         <v>436</v>
       </c>
       <c r="C317">
@@ -14693,11 +14685,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>3517</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="3" t="s">
         <v>437</v>
       </c>
       <c r="C318">
@@ -14719,11 +14711,11 @@
         <v>222</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>3528</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="3" t="s">
         <v>438</v>
       </c>
       <c r="C319">
@@ -14745,11 +14737,11 @@
         <v>337</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>3539</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="3" t="s">
         <v>439</v>
       </c>
       <c r="C320">
@@ -14771,11 +14763,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>3550</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="3" t="s">
         <v>440</v>
       </c>
       <c r="C321">
@@ -14797,11 +14789,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>3561</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="3" t="s">
         <v>441</v>
       </c>
       <c r="C322">
@@ -14823,11 +14815,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>3572</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="3" t="s">
         <v>442</v>
       </c>
       <c r="C323">
@@ -14849,11 +14841,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>3583</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="3" t="s">
         <v>443</v>
       </c>
       <c r="C324">
@@ -14875,11 +14867,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>3594</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="3" t="s">
         <v>444</v>
       </c>
       <c r="C325">
@@ -14901,11 +14893,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>3605</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="3" t="s">
         <v>445</v>
       </c>
       <c r="C326">
@@ -14927,11 +14919,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>3616</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="3" t="s">
         <v>446</v>
       </c>
       <c r="C327">
@@ -14953,11 +14945,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>3627</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="3" t="s">
         <v>447</v>
       </c>
       <c r="C328">
@@ -14979,11 +14971,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>3638</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="3" t="s">
         <v>448</v>
       </c>
       <c r="C329">
@@ -15031,11 +15023,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>3659</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="3" t="s">
         <v>451</v>
       </c>
       <c r="C331">
@@ -15057,11 +15049,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>3670</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="3" t="s">
         <v>452</v>
       </c>
       <c r="C332">
@@ -15083,11 +15075,11 @@
         <v>453</v>
       </c>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>3681</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="3" t="s">
         <v>454</v>
       </c>
       <c r="C333">
@@ -15109,11 +15101,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>3692</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="3" t="s">
         <v>455</v>
       </c>
       <c r="C334">
@@ -15135,11 +15127,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>3703</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="3" t="s">
         <v>456</v>
       </c>
       <c r="C335">
@@ -15187,11 +15179,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>3725</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="3" t="s">
         <v>459</v>
       </c>
       <c r="C337">
@@ -15213,11 +15205,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>3736</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="3" t="s">
         <v>460</v>
       </c>
       <c r="C338">
@@ -15239,11 +15231,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>3747</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="3" t="s">
         <v>461</v>
       </c>
       <c r="C339">
@@ -15265,11 +15257,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>3758</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="3" t="s">
         <v>462</v>
       </c>
       <c r="C340">
@@ -15291,11 +15283,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>3769</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="3" t="s">
         <v>463</v>
       </c>
       <c r="C341">
@@ -15317,11 +15309,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>3780</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="3" t="s">
         <v>464</v>
       </c>
       <c r="C342">
@@ -15343,11 +15335,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>3791</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="3" t="s">
         <v>465</v>
       </c>
       <c r="C343">
@@ -15369,11 +15361,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>3802</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="3" t="s">
         <v>466</v>
       </c>
       <c r="C344">
@@ -15395,11 +15387,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>3808</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="3" t="s">
         <v>467</v>
       </c>
       <c r="C345">
@@ -15421,11 +15413,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>3819</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="3" t="s">
         <v>468</v>
       </c>
       <c r="C346">
@@ -15473,11 +15465,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>3841</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="3" t="s">
         <v>471</v>
       </c>
       <c r="C348">
@@ -15499,11 +15491,11 @@
         <v>418</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>3846</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="3" t="s">
         <v>472</v>
       </c>
       <c r="C349">
@@ -15525,11 +15517,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>3857</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="3" t="s">
         <v>473</v>
       </c>
       <c r="C350">
@@ -15577,11 +15569,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>3878</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="3" t="s">
         <v>476</v>
       </c>
       <c r="C352">
@@ -15603,11 +15595,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>3889</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="3" t="s">
         <v>477</v>
       </c>
       <c r="C353">
@@ -15629,11 +15621,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>3900</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="3" t="s">
         <v>478</v>
       </c>
       <c r="C354">
@@ -15681,11 +15673,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>3922</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="3" t="s">
         <v>481</v>
       </c>
       <c r="C356">
@@ -15707,11 +15699,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>3933</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="3" t="s">
         <v>482</v>
       </c>
       <c r="C357">
@@ -15733,11 +15725,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>3944</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="3" t="s">
         <v>483</v>
       </c>
       <c r="C358">
@@ -15759,11 +15751,11 @@
         <v>216</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>3955</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="3" t="s">
         <v>484</v>
       </c>
       <c r="C359">
@@ -15785,11 +15777,11 @@
         <v>485</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>3966</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="3" t="s">
         <v>486</v>
       </c>
       <c r="C360">
@@ -15811,11 +15803,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>3971</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="3" t="s">
         <v>487</v>
       </c>
       <c r="C361">
@@ -15837,11 +15829,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>3982</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="3" t="s">
         <v>488</v>
       </c>
       <c r="C362">
@@ -15863,11 +15855,11 @@
         <v>418</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>3987</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="3" t="s">
         <v>489</v>
       </c>
       <c r="C363">
@@ -15889,11 +15881,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>3998</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="3" t="s">
         <v>490</v>
       </c>
       <c r="C364">
@@ -15915,11 +15907,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>4009</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="3" t="s">
         <v>491</v>
       </c>
       <c r="C365">
@@ -15941,11 +15933,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>4020</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="3" t="s">
         <v>492</v>
       </c>
       <c r="C366">
@@ -15967,11 +15959,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>4026</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="3" t="s">
         <v>493</v>
       </c>
       <c r="C367">
@@ -15993,11 +15985,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>4037</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="3" t="s">
         <v>494</v>
       </c>
       <c r="C368">
@@ -16019,11 +16011,11 @@
         <v>222</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>4048</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="3" t="s">
         <v>495</v>
       </c>
       <c r="C369">
@@ -16045,11 +16037,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>4059</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="3" t="s">
         <v>496</v>
       </c>
       <c r="C370">
@@ -16071,11 +16063,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>4070</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="3" t="s">
         <v>497</v>
       </c>
       <c r="C371">
@@ -16097,11 +16089,11 @@
         <v>485</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>4081</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="3" t="s">
         <v>498</v>
       </c>
       <c r="C372">
@@ -16123,11 +16115,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>4092</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="3" t="s">
         <v>499</v>
       </c>
       <c r="C373">
@@ -16175,11 +16167,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>4113</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375" s="3" t="s">
         <v>502</v>
       </c>
       <c r="C375">
@@ -16201,11 +16193,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>4124</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="3" t="s">
         <v>503</v>
       </c>
       <c r="C376">
@@ -16227,11 +16219,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>4135</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377" s="3" t="s">
         <v>504</v>
       </c>
       <c r="C377">
@@ -16253,11 +16245,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>4146</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378" s="3" t="s">
         <v>505</v>
       </c>
       <c r="C378">
@@ -16305,11 +16297,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>4167</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380" s="3" t="s">
         <v>508</v>
       </c>
       <c r="C380">
@@ -16331,11 +16323,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>4178</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381" s="3" t="s">
         <v>509</v>
       </c>
       <c r="C381">
@@ -16357,11 +16349,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>4189</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382" s="3" t="s">
         <v>510</v>
       </c>
       <c r="C382">
@@ -16383,11 +16375,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>4200</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="3" t="s">
         <v>511</v>
       </c>
       <c r="C383">
@@ -16409,11 +16401,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>4211</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384" s="3" t="s">
         <v>512</v>
       </c>
       <c r="C384">
@@ -16435,11 +16427,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>4222</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385" s="3" t="s">
         <v>513</v>
       </c>
       <c r="C385">
@@ -16461,11 +16453,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>4233</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386" s="3" t="s">
         <v>514</v>
       </c>
       <c r="C386">
@@ -16487,11 +16479,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>4244</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="3" t="s">
         <v>515</v>
       </c>
       <c r="C387">
@@ -16513,11 +16505,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>4255</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388" s="3" t="s">
         <v>516</v>
       </c>
       <c r="C388">
@@ -16539,11 +16531,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>4266</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="3" t="s">
         <v>517</v>
       </c>
       <c r="C389">
@@ -16565,11 +16557,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>4277</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="3" t="s">
         <v>518</v>
       </c>
       <c r="C390">
@@ -16591,11 +16583,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>4288</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="3" t="s">
         <v>519</v>
       </c>
       <c r="C391">
@@ -16617,11 +16609,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>4299</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="3" t="s">
         <v>520</v>
       </c>
       <c r="C392">
@@ -16643,11 +16635,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>4310</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393" s="3" t="s">
         <v>521</v>
       </c>
       <c r="C393">
@@ -16669,11 +16661,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>4321</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B394" s="3" t="s">
         <v>522</v>
       </c>
       <c r="C394">
@@ -16695,11 +16687,11 @@
         <v>414</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>4332</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395" s="3" t="s">
         <v>523</v>
       </c>
       <c r="C395">
@@ -16721,11 +16713,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>4343</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396" s="3" t="s">
         <v>524</v>
       </c>
       <c r="C396">
@@ -16747,11 +16739,11 @@
         <v>216</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>4354</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="3" t="s">
         <v>525</v>
       </c>
       <c r="C397">
@@ -16773,11 +16765,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>4360</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398" s="3" t="s">
         <v>526</v>
       </c>
       <c r="C398">
@@ -16799,11 +16791,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>4371</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="3" t="s">
         <v>527</v>
       </c>
       <c r="C399">
@@ -16825,11 +16817,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>4382</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400" s="3" t="s">
         <v>528</v>
       </c>
       <c r="C400">
@@ -16851,11 +16843,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>4393</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="3" t="s">
         <v>529</v>
       </c>
       <c r="C401">
@@ -16877,11 +16869,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>4404</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="3" t="s">
         <v>530</v>
       </c>
       <c r="C402">
@@ -16903,11 +16895,11 @@
         <v>414</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>4415</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403" s="3" t="s">
         <v>531</v>
       </c>
       <c r="C403">
@@ -16955,11 +16947,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>4436</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="3" t="s">
         <v>534</v>
       </c>
       <c r="C405">
@@ -16981,11 +16973,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>4447</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="3" t="s">
         <v>535</v>
       </c>
       <c r="C406">
@@ -17007,11 +16999,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>4458</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="3" t="s">
         <v>536</v>
       </c>
       <c r="C407">
@@ -17033,11 +17025,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>4469</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B408" s="3" t="s">
         <v>537</v>
       </c>
       <c r="C408">
@@ -17059,11 +17051,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>4480</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B409" s="3" t="s">
         <v>538</v>
       </c>
       <c r="C409">
@@ -17085,11 +17077,11 @@
         <v>418</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>4485</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B410" s="3" t="s">
         <v>539</v>
       </c>
       <c r="C410">
@@ -17111,11 +17103,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>4496</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B411" s="3" t="s">
         <v>540</v>
       </c>
       <c r="C411">
@@ -17137,11 +17129,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>4507</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412" s="3" t="s">
         <v>541</v>
       </c>
       <c r="C412">
@@ -17189,11 +17181,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>4529</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414" s="3" t="s">
         <v>544</v>
       </c>
       <c r="C414">
@@ -17215,11 +17207,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>4540</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415" s="3" t="s">
         <v>545</v>
       </c>
       <c r="C415">
@@ -17241,11 +17233,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>4551</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416" s="3" t="s">
         <v>546</v>
       </c>
       <c r="C416">
@@ -17267,11 +17259,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>4562</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417" s="3" t="s">
         <v>547</v>
       </c>
       <c r="C417">
@@ -17293,11 +17285,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>4573</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418" s="3" t="s">
         <v>548</v>
       </c>
       <c r="C418">
@@ -17319,11 +17311,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>4584</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="3" t="s">
         <v>549</v>
       </c>
       <c r="C419">
@@ -17345,11 +17337,11 @@
         <v>386</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>4595</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B420" s="3" t="s">
         <v>550</v>
       </c>
       <c r="C420">
@@ -17371,11 +17363,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>4606</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B421" s="3" t="s">
         <v>551</v>
       </c>
       <c r="C421">
@@ -17397,11 +17389,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>4617</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="3" t="s">
         <v>552</v>
       </c>
       <c r="C422">
@@ -17423,11 +17415,11 @@
         <v>553</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>4628</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423" s="3" t="s">
         <v>554</v>
       </c>
       <c r="C423">
@@ -17449,11 +17441,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>4639</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="3" t="s">
         <v>555</v>
       </c>
       <c r="C424">
@@ -17475,11 +17467,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>4650</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="3" t="s">
         <v>556</v>
       </c>
       <c r="C425">
@@ -17527,11 +17519,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>4666</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="3" t="s">
         <v>559</v>
       </c>
       <c r="C427">
@@ -17553,11 +17545,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>4677</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428" s="3" t="s">
         <v>560</v>
       </c>
       <c r="C428">
@@ -17605,11 +17597,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>4699</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430" s="3" t="s">
         <v>562</v>
       </c>
       <c r="C430">
@@ -17631,11 +17623,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>4710</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B431" s="3" t="s">
         <v>563</v>
       </c>
       <c r="C431">
@@ -17657,11 +17649,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>4721</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432" s="3" t="s">
         <v>564</v>
       </c>
       <c r="C432">
@@ -17683,11 +17675,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>4732</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B433" s="3" t="s">
         <v>565</v>
       </c>
       <c r="C433">
@@ -17709,11 +17701,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>4743</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B434" s="3" t="s">
         <v>566</v>
       </c>
       <c r="C434">
@@ -17735,11 +17727,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>4748</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B435" s="3" t="s">
         <v>567</v>
       </c>
       <c r="C435">
@@ -17761,11 +17753,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>4759</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436" s="3" t="s">
         <v>568</v>
       </c>
       <c r="C436">
@@ -17787,11 +17779,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>4770</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B437" s="3" t="s">
         <v>569</v>
       </c>
       <c r="C437">
@@ -17839,11 +17831,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>4786</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B439" s="3" t="s">
         <v>572</v>
       </c>
       <c r="C439">
@@ -17865,11 +17857,11 @@
         <v>414</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>4797</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B440" s="3" t="s">
         <v>573</v>
       </c>
       <c r="C440">
@@ -17917,11 +17909,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>4811</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B442" s="3" t="s">
         <v>576</v>
       </c>
       <c r="C442">
@@ -17943,11 +17935,11 @@
         <v>578</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>4813</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B443" s="3" t="s">
         <v>579</v>
       </c>
       <c r="C443">
@@ -17969,11 +17961,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>4819</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B444" s="3" t="s">
         <v>580</v>
       </c>
       <c r="C444">
@@ -18021,11 +18013,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>4840</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B446" s="3" t="s">
         <v>582</v>
       </c>
       <c r="C446">
@@ -18047,11 +18039,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>4851</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447" s="3" t="s">
         <v>583</v>
       </c>
       <c r="C447">
@@ -18073,11 +18065,11 @@
         <v>386</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>4862</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B448" s="3" t="s">
         <v>584</v>
       </c>
       <c r="C448">
@@ -18099,11 +18091,11 @@
         <v>578</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>4863</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B449" s="3" t="s">
         <v>586</v>
       </c>
       <c r="C449">
@@ -18125,11 +18117,11 @@
         <v>414</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>4874</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B450" s="3" t="s">
         <v>587</v>
       </c>
       <c r="C450">
@@ -18151,11 +18143,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>4885</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B451" s="3" t="s">
         <v>588</v>
       </c>
       <c r="C451">
@@ -18177,11 +18169,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>4890</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B452" s="3" t="s">
         <v>589</v>
       </c>
       <c r="C452">
@@ -18203,11 +18195,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>4901</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B453" s="3" t="s">
         <v>590</v>
       </c>
       <c r="C453">
@@ -18229,11 +18221,11 @@
         <v>414</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>4912</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B454" s="3" t="s">
         <v>591</v>
       </c>
       <c r="C454">
@@ -18307,11 +18299,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>4943</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B457" s="3" t="s">
         <v>595</v>
       </c>
       <c r="C457">
@@ -18333,11 +18325,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>4954</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B458" s="3" t="s">
         <v>596</v>
       </c>
       <c r="C458">
@@ -18359,11 +18351,11 @@
         <v>597</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>4965</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B459" s="3" t="s">
         <v>598</v>
       </c>
       <c r="C459">
@@ -18385,11 +18377,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>4976</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B460" s="3" t="s">
         <v>599</v>
       </c>
       <c r="C460">
@@ -18411,11 +18403,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>4987</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B461" s="3" t="s">
         <v>600</v>
       </c>
       <c r="C461">
@@ -18437,11 +18429,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>4998</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B462" s="3" t="s">
         <v>601</v>
       </c>
       <c r="C462">
@@ -18463,11 +18455,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>5009</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B463" s="3" t="s">
         <v>602</v>
       </c>
       <c r="C463">
@@ -18489,11 +18481,11 @@
         <v>553</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>5020</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B464" s="3" t="s">
         <v>603</v>
       </c>
       <c r="C464">
@@ -18541,11 +18533,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>5041</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B466" s="3" t="s">
         <v>606</v>
       </c>
       <c r="C466">
@@ -18567,11 +18559,11 @@
         <v>553</v>
       </c>
     </row>
-    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>5052</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B467" s="3" t="s">
         <v>607</v>
       </c>
       <c r="C467">
@@ -18593,11 +18585,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>5063</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B468" s="3" t="s">
         <v>608</v>
       </c>
       <c r="C468">
@@ -18645,11 +18637,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>5084</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B470" s="3" t="s">
         <v>611</v>
       </c>
       <c r="C470">
@@ -18671,11 +18663,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>5095</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B471" s="3" t="s">
         <v>612</v>
       </c>
       <c r="C471">
@@ -18697,11 +18689,11 @@
         <v>414</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>5106</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B472" s="3" t="s">
         <v>613</v>
       </c>
       <c r="C472">
@@ -18723,11 +18715,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>5117</v>
       </c>
-      <c r="B473" t="s">
+      <c r="B473" s="3" t="s">
         <v>614</v>
       </c>
       <c r="C473">
@@ -18749,11 +18741,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>5128</v>
       </c>
-      <c r="B474" t="s">
+      <c r="B474" s="3" t="s">
         <v>615</v>
       </c>
       <c r="C474">
@@ -18775,11 +18767,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>5139</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B475" s="3" t="s">
         <v>616</v>
       </c>
       <c r="C475">
@@ -18801,11 +18793,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>5150</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B476" s="3" t="s">
         <v>617</v>
       </c>
       <c r="C476">
@@ -18827,11 +18819,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>5161</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B477" s="3" t="s">
         <v>618</v>
       </c>
       <c r="C477">
@@ -18853,11 +18845,11 @@
         <v>414</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>5172</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B478" s="3" t="s">
         <v>619</v>
       </c>
       <c r="C478">
@@ -18879,11 +18871,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>5183</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B479" s="3" t="s">
         <v>620</v>
       </c>
       <c r="C479">
@@ -18905,11 +18897,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>5193</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B480" s="3" t="s">
         <v>621</v>
       </c>
       <c r="C480">
@@ -18931,11 +18923,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>5204</v>
       </c>
-      <c r="B481" t="s">
+      <c r="B481" s="3" t="s">
         <v>622</v>
       </c>
       <c r="C481">
@@ -18957,11 +18949,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>5215</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B482" s="3" t="s">
         <v>623</v>
       </c>
       <c r="C482">
@@ -18983,11 +18975,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>5226</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B483" s="3" t="s">
         <v>624</v>
       </c>
       <c r="C483">
@@ -19009,11 +19001,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>5237</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B484" s="3" t="s">
         <v>625</v>
       </c>
       <c r="C484">
@@ -19035,11 +19027,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>5248</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B485" s="3" t="s">
         <v>626</v>
       </c>
       <c r="C485">
@@ -19061,11 +19053,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>5259</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B486" s="3" t="s">
         <v>627</v>
       </c>
       <c r="C486">
@@ -19087,11 +19079,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>5270</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B487" s="3" t="s">
         <v>628</v>
       </c>
       <c r="C487">
@@ -19113,11 +19105,11 @@
         <v>284</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>5281</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B488" s="3" t="s">
         <v>629</v>
       </c>
       <c r="C488">
@@ -19139,11 +19131,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>5292</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B489" s="3" t="s">
         <v>630</v>
       </c>
       <c r="C489">
@@ -19165,11 +19157,11 @@
         <v>424</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>5303</v>
       </c>
-      <c r="B490" t="s">
+      <c r="B490" s="3" t="s">
         <v>631</v>
       </c>
       <c r="C490">
@@ -19191,11 +19183,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>5314</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B491" s="3" t="s">
         <v>632</v>
       </c>
       <c r="C491">
@@ -19217,11 +19209,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>5325</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B492" s="3" t="s">
         <v>633</v>
       </c>
       <c r="C492">
@@ -19243,11 +19235,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>5336</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B493" s="3" t="s">
         <v>634</v>
       </c>
       <c r="C493">
@@ -19269,11 +19261,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>5347</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B494" s="3" t="s">
         <v>635</v>
       </c>
       <c r="C494">
@@ -19295,11 +19287,11 @@
         <v>553</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>5358</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B495" s="3" t="s">
         <v>636</v>
       </c>
       <c r="C495">
@@ -19321,11 +19313,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>5369</v>
       </c>
-      <c r="B496" t="s">
+      <c r="B496" s="3" t="s">
         <v>637</v>
       </c>
       <c r="C496">
@@ -19347,11 +19339,11 @@
         <v>386</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>5380</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B497" s="3" t="s">
         <v>638</v>
       </c>
       <c r="C497">
@@ -19373,11 +19365,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>5391</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B498" s="3" t="s">
         <v>639</v>
       </c>
       <c r="C498">
@@ -19399,11 +19391,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>5397</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B499" s="3" t="s">
         <v>640</v>
       </c>
       <c r="C499">
@@ -19425,11 +19417,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>5408</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B500" s="3" t="s">
         <v>641</v>
       </c>
       <c r="C500">
@@ -19451,11 +19443,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>5419</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B501" s="3" t="s">
         <v>642</v>
       </c>
       <c r="C501">
@@ -19477,11 +19469,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>5430</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B502" s="3" t="s">
         <v>643</v>
       </c>
       <c r="C502">
@@ -19503,11 +19495,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>5441</v>
       </c>
-      <c r="B503" t="s">
+      <c r="B503" s="3" t="s">
         <v>644</v>
       </c>
       <c r="C503">
@@ -19529,11 +19521,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>5452</v>
       </c>
-      <c r="B504" t="s">
+      <c r="B504" s="3" t="s">
         <v>645</v>
       </c>
       <c r="C504">
@@ -19555,11 +19547,11 @@
         <v>553</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>5463</v>
       </c>
-      <c r="B505" t="s">
+      <c r="B505" s="3" t="s">
         <v>646</v>
       </c>
       <c r="C505">
@@ -19581,11 +19573,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>5474</v>
       </c>
-      <c r="B506" t="s">
+      <c r="B506" s="3" t="s">
         <v>647</v>
       </c>
       <c r="C506">
@@ -19607,11 +19599,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>5485</v>
       </c>
-      <c r="B507" t="s">
+      <c r="B507" s="3" t="s">
         <v>648</v>
       </c>
       <c r="C507">
@@ -19633,11 +19625,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>5496</v>
       </c>
-      <c r="B508" t="s">
+      <c r="B508" s="3" t="s">
         <v>649</v>
       </c>
       <c r="C508">
@@ -19659,11 +19651,11 @@
         <v>337</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>5507</v>
       </c>
-      <c r="B509" t="s">
+      <c r="B509" s="3" t="s">
         <v>650</v>
       </c>
       <c r="C509">
@@ -19685,11 +19677,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>5518</v>
       </c>
-      <c r="B510" t="s">
+      <c r="B510" s="3" t="s">
         <v>651</v>
       </c>
       <c r="C510">
@@ -19711,11 +19703,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>5529</v>
       </c>
-      <c r="B511" t="s">
+      <c r="B511" s="3" t="s">
         <v>652</v>
       </c>
       <c r="C511">
@@ -19737,11 +19729,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>5540</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B512" s="3" t="s">
         <v>653</v>
       </c>
       <c r="C512">
@@ -19763,11 +19755,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>5551</v>
       </c>
-      <c r="B513" t="s">
+      <c r="B513" s="3" t="s">
         <v>654</v>
       </c>
       <c r="C513">
@@ -19789,11 +19781,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>5562</v>
       </c>
-      <c r="B514" t="s">
+      <c r="B514" s="3" t="s">
         <v>655</v>
       </c>
       <c r="C514">
@@ -19815,11 +19807,11 @@
         <v>414</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>5573</v>
       </c>
-      <c r="B515" t="s">
+      <c r="B515" s="3" t="s">
         <v>656</v>
       </c>
       <c r="C515">
@@ -19841,11 +19833,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>5584</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B516" s="3" t="s">
         <v>657</v>
       </c>
       <c r="C516">
@@ -19867,11 +19859,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>5595</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B517" s="3" t="s">
         <v>658</v>
       </c>
       <c r="C517">
@@ -19893,11 +19885,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>5606</v>
       </c>
-      <c r="B518" t="s">
+      <c r="B518" s="3" t="s">
         <v>659</v>
       </c>
       <c r="C518">
@@ -19945,11 +19937,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>5627</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B520" s="3" t="s">
         <v>662</v>
       </c>
       <c r="C520">
@@ -19971,11 +19963,11 @@
         <v>597</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>5638</v>
       </c>
-      <c r="B521" t="s">
+      <c r="B521" s="3" t="s">
         <v>663</v>
       </c>
       <c r="C521">
@@ -19997,11 +19989,11 @@
         <v>664</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>5649</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B522" s="3" t="s">
         <v>665</v>
       </c>
       <c r="C522">
@@ -20049,11 +20041,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>5670</v>
       </c>
-      <c r="B524" t="s">
+      <c r="B524" s="3" t="s">
         <v>668</v>
       </c>
       <c r="C524">
@@ -20075,11 +20067,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>5681</v>
       </c>
-      <c r="B525" t="s">
+      <c r="B525" s="3" t="s">
         <v>669</v>
       </c>
       <c r="C525">
@@ -20101,11 +20093,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>5692</v>
       </c>
-      <c r="B526" t="s">
+      <c r="B526" s="3" t="s">
         <v>670</v>
       </c>
       <c r="C526">
@@ -20127,11 +20119,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>5703</v>
       </c>
-      <c r="B527" t="s">
+      <c r="B527" s="3" t="s">
         <v>671</v>
       </c>
       <c r="C527">
@@ -20153,11 +20145,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>5714</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B528" s="3" t="s">
         <v>672</v>
       </c>
       <c r="C528">
@@ -20179,11 +20171,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>5725</v>
       </c>
-      <c r="B529" t="s">
+      <c r="B529" s="3" t="s">
         <v>673</v>
       </c>
       <c r="C529">
@@ -20205,11 +20197,11 @@
         <v>337</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>5736</v>
       </c>
-      <c r="B530" t="s">
+      <c r="B530" s="3" t="s">
         <v>674</v>
       </c>
       <c r="C530">
@@ -20231,11 +20223,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>5747</v>
       </c>
-      <c r="B531" t="s">
+      <c r="B531" s="3" t="s">
         <v>675</v>
       </c>
       <c r="C531">
@@ -20257,11 +20249,11 @@
         <v>453</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>5758</v>
       </c>
-      <c r="B532" t="s">
+      <c r="B532" s="3" t="s">
         <v>676</v>
       </c>
       <c r="C532">
@@ -20283,11 +20275,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>5769</v>
       </c>
-      <c r="B533" t="s">
+      <c r="B533" s="3" t="s">
         <v>677</v>
       </c>
       <c r="C533">
@@ -20309,11 +20301,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>5780</v>
       </c>
-      <c r="B534" t="s">
+      <c r="B534" s="3" t="s">
         <v>678</v>
       </c>
       <c r="C534">
@@ -20361,11 +20353,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>5801</v>
       </c>
-      <c r="B536" t="s">
+      <c r="B536" s="3" t="s">
         <v>681</v>
       </c>
       <c r="C536">
@@ -20387,11 +20379,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>5812</v>
       </c>
-      <c r="B537" t="s">
+      <c r="B537" s="3" t="s">
         <v>682</v>
       </c>
       <c r="C537">
@@ -20413,11 +20405,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>5823</v>
       </c>
-      <c r="B538" t="s">
+      <c r="B538" s="3" t="s">
         <v>683</v>
       </c>
       <c r="C538">
@@ -20439,11 +20431,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>5834</v>
       </c>
-      <c r="B539" t="s">
+      <c r="B539" s="3" t="s">
         <v>684</v>
       </c>
       <c r="C539">
@@ -20465,11 +20457,11 @@
         <v>597</v>
       </c>
     </row>
-    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>5845</v>
       </c>
-      <c r="B540" t="s">
+      <c r="B540" s="3" t="s">
         <v>685</v>
       </c>
       <c r="C540">
@@ -20491,11 +20483,11 @@
         <v>386</v>
       </c>
     </row>
-    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>5856</v>
       </c>
-      <c r="B541" t="s">
+      <c r="B541" s="3" t="s">
         <v>686</v>
       </c>
       <c r="C541">
@@ -20517,11 +20509,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>5867</v>
       </c>
-      <c r="B542" t="s">
+      <c r="B542" s="3" t="s">
         <v>687</v>
       </c>
       <c r="C542">
@@ -20543,11 +20535,11 @@
         <v>597</v>
       </c>
     </row>
-    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>5878</v>
       </c>
-      <c r="B543" t="s">
+      <c r="B543" s="3" t="s">
         <v>688</v>
       </c>
       <c r="C543">
@@ -20569,11 +20561,11 @@
         <v>664</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>5889</v>
       </c>
-      <c r="B544" t="s">
+      <c r="B544" s="3" t="s">
         <v>689</v>
       </c>
       <c r="C544">
@@ -20595,11 +20587,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>5900</v>
       </c>
-      <c r="B545" t="s">
+      <c r="B545" s="3" t="s">
         <v>690</v>
       </c>
       <c r="C545">
@@ -20673,11 +20665,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>5931</v>
       </c>
-      <c r="B548" t="s">
+      <c r="B548" s="3" t="s">
         <v>695</v>
       </c>
       <c r="C548">
@@ -20699,11 +20691,11 @@
         <v>597</v>
       </c>
     </row>
-    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>5942</v>
       </c>
-      <c r="B549" t="s">
+      <c r="B549" s="3" t="s">
         <v>696</v>
       </c>
       <c r="C549">
@@ -20725,11 +20717,11 @@
         <v>578</v>
       </c>
     </row>
-    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>5944</v>
       </c>
-      <c r="B550" t="s">
+      <c r="B550" s="3" t="s">
         <v>697</v>
       </c>
       <c r="C550">
@@ -20751,11 +20743,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>5955</v>
       </c>
-      <c r="B551" t="s">
+      <c r="B551" s="3" t="s">
         <v>698</v>
       </c>
       <c r="C551">
@@ -20777,11 +20769,11 @@
         <v>664</v>
       </c>
     </row>
-    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>5966</v>
       </c>
-      <c r="B552" t="s">
+      <c r="B552" s="3" t="s">
         <v>699</v>
       </c>
       <c r="C552">
@@ -20803,11 +20795,11 @@
         <v>403</v>
       </c>
     </row>
-    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>5977</v>
       </c>
-      <c r="B553" t="s">
+      <c r="B553" s="3" t="s">
         <v>700</v>
       </c>
       <c r="C553">
@@ -20829,11 +20821,11 @@
         <v>386</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>5988</v>
       </c>
-      <c r="B554" t="s">
+      <c r="B554" s="3" t="s">
         <v>701</v>
       </c>
       <c r="C554">
@@ -20907,11 +20899,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>6019</v>
       </c>
-      <c r="B557" t="s">
+      <c r="B557" s="3" t="s">
         <v>706</v>
       </c>
       <c r="C557">
@@ -20933,11 +20925,11 @@
         <v>414</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>6030</v>
       </c>
-      <c r="B558" t="s">
+      <c r="B558" s="3" t="s">
         <v>707</v>
       </c>
       <c r="C558">
@@ -21999,11 +21991,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>6452</v>
       </c>
-      <c r="B599" t="s">
+      <c r="B599" s="3" t="s">
         <v>782</v>
       </c>
       <c r="C599">
@@ -22103,11 +22095,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>6495</v>
       </c>
-      <c r="B603" t="s">
+      <c r="B603" s="3" t="s">
         <v>789</v>
       </c>
       <c r="C603">
@@ -22415,11 +22407,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>6619</v>
       </c>
-      <c r="B615" t="s">
+      <c r="B615" s="3" t="s">
         <v>809</v>
       </c>
       <c r="C615">
@@ -24599,11 +24591,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>7507</v>
       </c>
-      <c r="B699" t="s">
+      <c r="B699" s="3" t="s">
         <v>962</v>
       </c>
       <c r="C699">
@@ -25795,11 +25787,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>7978</v>
       </c>
-      <c r="B745" t="s">
+      <c r="B745" s="3" t="s">
         <v>1040</v>
       </c>
       <c r="C745">
@@ -28993,11 +28985,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="868" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A868" s="1">
         <v>9279</v>
       </c>
-      <c r="B868" t="s">
+      <c r="B868" s="3" t="s">
         <v>1258</v>
       </c>
       <c r="C868">
@@ -33309,11 +33301,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1034" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1034" s="1">
         <v>11031</v>
       </c>
-      <c r="B1034" t="s">
+      <c r="B1034" s="3" t="s">
         <v>1548</v>
       </c>
       <c r="C1034">
@@ -34609,11 +34601,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1084" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1084" s="1">
         <v>11549</v>
       </c>
-      <c r="B1084" t="s">
+      <c r="B1084" s="3" t="s">
         <v>1633</v>
       </c>
       <c r="C1084">
@@ -35441,11 +35433,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1116" s="1">
         <v>11717</v>
       </c>
-      <c r="B1116" t="s">
+      <c r="B1116" s="3" t="s">
         <v>1673</v>
       </c>
       <c r="C1116">
@@ -35779,11 +35771,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1129" s="1">
         <v>11753</v>
       </c>
-      <c r="B1129" t="s">
+      <c r="B1129" s="3" t="s">
         <v>1687</v>
       </c>
       <c r="C1129">
@@ -35805,11 +35797,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="1130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1130" s="1">
         <v>11758</v>
       </c>
-      <c r="B1130" t="s">
+      <c r="B1130" s="3" t="s">
         <v>1688</v>
       </c>
       <c r="C1130">
@@ -35961,11 +35953,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1136" s="1">
         <v>11778</v>
       </c>
-      <c r="B1136" t="s">
+      <c r="B1136" s="3" t="s">
         <v>1694</v>
       </c>
       <c r="C1136">
@@ -36091,11 +36083,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1141" s="1">
         <v>11789</v>
       </c>
-      <c r="B1141" t="s">
+      <c r="B1141" s="3" t="s">
         <v>1699</v>
       </c>
       <c r="C1141">
@@ -36143,11 +36135,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1143" s="1">
         <v>11792</v>
       </c>
-      <c r="B1143" t="s">
+      <c r="B1143" s="3" t="s">
         <v>1701</v>
       </c>
       <c r="C1143">
@@ -36247,11 +36239,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1147" s="1">
         <v>11804</v>
       </c>
-      <c r="B1147" t="s">
+      <c r="B1147" s="3" t="s">
         <v>1705</v>
       </c>
       <c r="C1147">
@@ -36325,11 +36317,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1150" s="1">
         <v>11812</v>
       </c>
-      <c r="B1150" t="s">
+      <c r="B1150" s="3" t="s">
         <v>1708</v>
       </c>
       <c r="C1150">
@@ -36585,11 +36577,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1160" s="1">
         <v>11826</v>
       </c>
-      <c r="B1160" t="s">
+      <c r="B1160" s="3" t="s">
         <v>1718</v>
       </c>
       <c r="C1160">
@@ -36897,11 +36889,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1172" s="1">
         <v>11840</v>
       </c>
-      <c r="B1172" t="s">
+      <c r="B1172" s="3" t="s">
         <v>1730</v>
       </c>
       <c r="C1172">
@@ -37001,11 +36993,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1176" s="1">
         <v>11849</v>
       </c>
-      <c r="B1176" t="s">
+      <c r="B1176" s="3" t="s">
         <v>1734</v>
       </c>
       <c r="C1176">
@@ -37027,11 +37019,11 @@
         <v>418</v>
       </c>
     </row>
-    <row r="1177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1177" s="1">
         <v>11854</v>
       </c>
-      <c r="B1177" t="s">
+      <c r="B1177" s="3" t="s">
         <v>1735</v>
       </c>
       <c r="C1177">
@@ -37053,11 +37045,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="1178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1178" s="1">
         <v>11859</v>
       </c>
-      <c r="B1178" t="s">
+      <c r="B1178" s="3" t="s">
         <v>1736</v>
       </c>
       <c r="C1178">
@@ -37261,11 +37253,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1186" s="1">
         <v>11867</v>
       </c>
-      <c r="B1186" t="s">
+      <c r="B1186" s="3" t="s">
         <v>1744</v>
       </c>
       <c r="C1186">
@@ -37677,11 +37669,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1202" s="1">
         <v>11887</v>
       </c>
-      <c r="B1202" t="s">
+      <c r="B1202" s="3" t="s">
         <v>1760</v>
       </c>
       <c r="C1202">
@@ -37755,11 +37747,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1205" s="1">
         <v>11894</v>
       </c>
-      <c r="B1205" t="s">
+      <c r="B1205" s="3" t="s">
         <v>1763</v>
       </c>
       <c r="C1205">
@@ -37807,11 +37799,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1207" s="1">
         <v>11900</v>
       </c>
-      <c r="B1207" t="s">
+      <c r="B1207" s="3" t="s">
         <v>1765</v>
       </c>
       <c r="C1207">
@@ -37833,11 +37825,11 @@
         <v>418</v>
       </c>
     </row>
-    <row r="1208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1208" s="1">
         <v>11903</v>
       </c>
-      <c r="B1208" t="s">
+      <c r="B1208" s="3" t="s">
         <v>1766</v>
       </c>
       <c r="C1208">
@@ -37885,11 +37877,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1210" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1210" s="1">
         <v>11905</v>
       </c>
-      <c r="B1210" t="s">
+      <c r="B1210" s="3" t="s">
         <v>1769</v>
       </c>
       <c r="C1210">
@@ -38223,11 +38215,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1223" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1223" s="1">
         <v>11923</v>
       </c>
-      <c r="B1223" t="s">
+      <c r="B1223" s="3" t="s">
         <v>1782</v>
       </c>
       <c r="C1223">
@@ -38275,11 +38267,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1225" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1225" s="1">
         <v>11929</v>
       </c>
-      <c r="B1225" t="s">
+      <c r="B1225" s="3" t="s">
         <v>1784</v>
       </c>
       <c r="C1225">
@@ -38405,11 +38397,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1230" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1230" s="1">
         <v>11948</v>
       </c>
-      <c r="B1230" t="s">
+      <c r="B1230" s="3" t="s">
         <v>1789</v>
       </c>
       <c r="C1230">
@@ -39029,11 +39021,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1254" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1254" s="1">
         <v>11982</v>
       </c>
-      <c r="B1254" t="s">
+      <c r="B1254" s="3" t="s">
         <v>1813</v>
       </c>
       <c r="C1254">
@@ -39055,11 +39047,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="1255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1255" s="1">
         <v>11987</v>
       </c>
-      <c r="B1255" t="s">
+      <c r="B1255" s="3" t="s">
         <v>1814</v>
       </c>
       <c r="C1255">
@@ -39133,11 +39125,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1258" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1258" s="1">
         <v>11993</v>
       </c>
-      <c r="B1258" t="s">
+      <c r="B1258" s="3" t="s">
         <v>1817</v>
       </c>
       <c r="C1258">
@@ -39601,11 +39593,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1276" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1276" s="1">
         <v>12025</v>
       </c>
-      <c r="B1276" t="s">
+      <c r="B1276" s="3" t="s">
         <v>1836</v>
       </c>
       <c r="C1276">
@@ -39861,11 +39853,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1286" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1286" s="1">
         <v>12052</v>
       </c>
-      <c r="B1286" t="s">
+      <c r="B1286" s="3" t="s">
         <v>1846</v>
       </c>
       <c r="C1286">
@@ -41083,11 +41075,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1333" s="1">
         <v>12103</v>
       </c>
-      <c r="B1333" t="s">
+      <c r="B1333" s="3" t="s">
         <v>1893</v>
       </c>
       <c r="C1333">
@@ -42097,11 +42089,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1372" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1372" s="1">
         <v>12142</v>
       </c>
-      <c r="B1372" t="s">
+      <c r="B1372" s="3" t="s">
         <v>1932</v>
       </c>
       <c r="C1372">
@@ -42383,11 +42375,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1383" s="1">
         <v>12157</v>
       </c>
-      <c r="B1383" t="s">
+      <c r="B1383" s="3" t="s">
         <v>1943</v>
       </c>
       <c r="C1383">
@@ -42409,11 +42401,11 @@
         <v>418</v>
       </c>
     </row>
-    <row r="1384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1384" s="1">
         <v>12159</v>
       </c>
-      <c r="B1384" t="s">
+      <c r="B1384" s="3" t="s">
         <v>1944</v>
       </c>
       <c r="C1384">
@@ -42487,11 +42479,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1387" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1387" s="1">
         <v>12165</v>
       </c>
-      <c r="B1387" t="s">
+      <c r="B1387" s="3" t="s">
         <v>1947</v>
       </c>
       <c r="C1387">
@@ -42565,11 +42557,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1390" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1390" s="1">
         <v>12168</v>
       </c>
-      <c r="B1390" t="s">
+      <c r="B1390" s="3" t="s">
         <v>1950</v>
       </c>
       <c r="C1390">
@@ -42799,11 +42791,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1399" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1399" s="1">
         <v>12181</v>
       </c>
-      <c r="B1399" t="s">
+      <c r="B1399" s="3" t="s">
         <v>1959</v>
       </c>
       <c r="C1399">
@@ -42877,11 +42869,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1402" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1402" s="1">
         <v>12188</v>
       </c>
-      <c r="B1402" t="s">
+      <c r="B1402" s="3" t="s">
         <v>1962</v>
       </c>
       <c r="C1402">
@@ -42929,11 +42921,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1404" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1404" s="1">
         <v>12194</v>
       </c>
-      <c r="B1404" t="s">
+      <c r="B1404" s="3" t="s">
         <v>1964</v>
       </c>
       <c r="C1404">
@@ -42955,11 +42947,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="1405" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1405" s="1">
         <v>12199</v>
       </c>
-      <c r="B1405" t="s">
+      <c r="B1405" s="3" t="s">
         <v>1965</v>
       </c>
       <c r="C1405">
@@ -42981,11 +42973,11 @@
         <v>418</v>
       </c>
     </row>
-    <row r="1406" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1406" s="1">
         <v>12200</v>
       </c>
-      <c r="B1406" t="s">
+      <c r="B1406" s="3" t="s">
         <v>1966</v>
       </c>
       <c r="C1406">
@@ -43007,11 +42999,11 @@
         <v>418</v>
       </c>
     </row>
-    <row r="1407" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1407" s="1">
         <v>12201</v>
       </c>
-      <c r="B1407" t="s">
+      <c r="B1407" s="3" t="s">
         <v>1967</v>
       </c>
       <c r="C1407">
@@ -43059,11 +43051,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1409" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1409" s="1">
         <v>12206</v>
       </c>
-      <c r="B1409" t="s">
+      <c r="B1409" s="3" t="s">
         <v>1969</v>
       </c>
       <c r="C1409">
@@ -43085,11 +43077,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="1410" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1410" s="1">
         <v>12211</v>
       </c>
-      <c r="B1410" t="s">
+      <c r="B1410" s="3" t="s">
         <v>1970</v>
       </c>
       <c r="C1410">
@@ -43215,11 +43207,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1415" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1415" s="1">
         <v>12216</v>
       </c>
-      <c r="B1415" t="s">
+      <c r="B1415" s="3" t="s">
         <v>1975</v>
       </c>
       <c r="C1415">
@@ -44204,13 +44196,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1452" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="DETROIT CITY"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>